--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_28_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_28_6.xlsx
@@ -518,1321 +518,1321 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_6</t>
+          <t>model_28_6_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9723664906179202</v>
+        <v>0.9734949208116714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7602674863575898</v>
+        <v>0.8076841237959762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9802311009347491</v>
+        <v>0.8734075623073914</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9133531567955326</v>
+        <v>0.9088731108597592</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9325446105493471</v>
+        <v>0.8848042192058982</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1847854044785781</v>
+        <v>0.1772395865770207</v>
       </c>
       <c r="H2" t="n">
-        <v>1.603092422593522</v>
+        <v>1.286017149709492</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06807338671028111</v>
+        <v>0.6303837213966041</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8981992646863691</v>
+        <v>0.2147633803058394</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4831364558771649</v>
+        <v>0.4225733111769748</v>
       </c>
       <c r="L2" t="n">
-        <v>2.473654968742355</v>
+        <v>0.2754381705837368</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4298667287411042</v>
+        <v>0.4209983213470343</v>
       </c>
       <c r="N2" t="n">
-        <v>1.03158115357952</v>
+        <v>1.030291519072376</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4481670453304142</v>
+        <v>0.4389210914734446</v>
       </c>
       <c r="P2" t="n">
-        <v>93.37712020597584</v>
+        <v>93.46050573042764</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2265323250449</v>
+        <v>148.3099178494967</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_7</t>
+          <t>model_28_6_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9726692766230958</v>
+        <v>0.9731310614971017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7602013342837975</v>
+        <v>0.807564909503785</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9804143402654882</v>
+        <v>0.8663726994386132</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9110467224330298</v>
+        <v>0.8963304349793644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9309196660149479</v>
+        <v>0.8760001568968007</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1827606730677679</v>
+        <v>0.1796727154889663</v>
       </c>
       <c r="H3" t="n">
-        <v>1.603534781815573</v>
+        <v>1.286814336230306</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06744240964975938</v>
+        <v>0.6654147478588913</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9221082447695655</v>
+        <v>0.2443233432933677</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4947748134604526</v>
+        <v>0.45486930097901</v>
       </c>
       <c r="L3" t="n">
-        <v>2.459956412151342</v>
+        <v>0.2769553950755385</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4275051731473759</v>
+        <v>0.4238781847287807</v>
       </c>
       <c r="N3" t="n">
-        <v>1.031235112430748</v>
+        <v>1.030707358289027</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4457049534259669</v>
+        <v>0.441923556601491</v>
       </c>
       <c r="P3" t="n">
-        <v>93.39915555899601</v>
+        <v>93.433236660787</v>
       </c>
       <c r="Q3" t="n">
-        <v>148.248567678065</v>
+        <v>148.282648779856</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_5</t>
+          <t>model_28_6_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9718892194109091</v>
+        <v>0.9736263073208633</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7601735709650029</v>
+        <v>0.8074330587021959</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9799631544533256</v>
+        <v>0.8807774466527776</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9158007679856621</v>
+        <v>0.9214067593494935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9342514414766979</v>
+        <v>0.8938325168931189</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1879769192374936</v>
+        <v>0.1763610043850752</v>
       </c>
       <c r="H4" t="n">
-        <v>1.603720435256191</v>
+        <v>1.287696023147649</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0689960493424992</v>
+        <v>0.5936844113541817</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8728268161365171</v>
+        <v>0.185224692629604</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4709116025075901</v>
+        <v>0.3894547575139783</v>
       </c>
       <c r="L4" t="n">
-        <v>2.488461363756299</v>
+        <v>0.2737072410709309</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4335630510519705</v>
+        <v>0.4199535740829874</v>
       </c>
       <c r="N4" t="n">
-        <v>1.032126606387533</v>
+        <v>1.030141363061871</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4520207277344961</v>
+        <v>0.4378318671554423</v>
       </c>
       <c r="P4" t="n">
-        <v>93.34287218740475</v>
+        <v>93.47044444684855</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.1922843064738</v>
+        <v>148.3198565659176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_8</t>
+          <t>model_28_6_10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9728410350403907</v>
+        <v>0.9726011921647707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7600234503079025</v>
+        <v>0.8071618051428702</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9805295469926884</v>
+        <v>0.8597266337686604</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9088958446989662</v>
+        <v>0.8839440301904831</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9293908236074417</v>
+        <v>0.8675103096722283</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1816121237404427</v>
+        <v>0.1832159541540876</v>
       </c>
       <c r="H5" t="n">
-        <v>1.604724292781463</v>
+        <v>1.289509896947869</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06704570004714409</v>
+        <v>0.6985097074475842</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9444046923690157</v>
+        <v>0.2735150142413655</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5057248577545048</v>
+        <v>0.4860126538721731</v>
       </c>
       <c r="L5" t="n">
-        <v>2.447313917296778</v>
+        <v>0.2782185634442267</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4261597396991446</v>
+        <v>0.4280373279914821</v>
       </c>
       <c r="N5" t="n">
-        <v>1.031038817096696</v>
+        <v>1.031312923240262</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4443022420904132</v>
+        <v>0.4462597632034991</v>
       </c>
       <c r="P5" t="n">
-        <v>93.41176410871617</v>
+        <v>93.39417948907989</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2611762277852</v>
+        <v>148.2435916081489</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_4</t>
+          <t>model_28_6_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9711812145178437</v>
+        <v>0.9734414451042724</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7598556065747933</v>
+        <v>0.806715613643465</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9795898805832077</v>
+        <v>0.8883937804748127</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9183627667309132</v>
+        <v>0.9337418551807035</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9360157539943285</v>
+        <v>0.9029644632222249</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1927113512174848</v>
+        <v>0.1775971788786305</v>
       </c>
       <c r="H6" t="n">
-        <v>1.605846664597614</v>
+        <v>1.292493581558914</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07028140248358752</v>
+        <v>0.5557578736743274</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8462686023112125</v>
+        <v>0.1561539441150768</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4582750481303993</v>
+        <v>0.3559559889724629</v>
       </c>
       <c r="L6" t="n">
-        <v>2.504398637404639</v>
+        <v>0.2717893454429489</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4389890103607205</v>
+        <v>0.4214228029884364</v>
       </c>
       <c r="N6" t="n">
-        <v>1.03293575483675</v>
+        <v>1.030352634166546</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4576776813643038</v>
+        <v>0.4393636441771194</v>
       </c>
       <c r="P6" t="n">
-        <v>93.29312359826874</v>
+        <v>93.45647466648525</v>
       </c>
       <c r="Q6" t="n">
-        <v>148.1425357173378</v>
+        <v>148.3058867855543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_9</t>
+          <t>model_28_6_11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9729154895493841</v>
+        <v>0.9719576312305201</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7597701084699435</v>
+        <v>0.8065497976215777</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9805904871401316</v>
+        <v>0.8534969271231537</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9069052029266671</v>
+        <v>0.8718526440486944</v>
       </c>
       <c r="F7" t="n">
-        <v>0.927964926592635</v>
+        <v>0.8593978952513069</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1811142460959718</v>
+        <v>0.1875194490847469</v>
       </c>
       <c r="H7" t="n">
-        <v>1.606418390818427</v>
+        <v>1.293602394060787</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06683585516861072</v>
+        <v>0.7295313524208761</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9650401005386329</v>
+        <v>0.3020113997198312</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5159375751635945</v>
+        <v>0.51577146795249</v>
       </c>
       <c r="L7" t="n">
-        <v>2.43567197035812</v>
+        <v>0.2792107406161292</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4255751944086636</v>
+        <v>0.4330351591784978</v>
       </c>
       <c r="N7" t="n">
-        <v>1.030953726229275</v>
+        <v>1.032048421450834</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4436928114967408</v>
+        <v>0.4514703624110828</v>
       </c>
       <c r="P7" t="n">
-        <v>93.41725450587001</v>
+        <v>93.34774542099822</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.266666624939</v>
+        <v>148.1971575400673</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_10</t>
+          <t>model_28_6_12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9729185732861948</v>
+        <v>0.9712413275330128</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7594685081583007</v>
+        <v>0.8057918882931723</v>
       </c>
       <c r="D8" t="n">
-        <v>0.980608526392247</v>
+        <v>0.8476933139988885</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9050738176832391</v>
+        <v>0.8601675735865821</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9266438889852313</v>
+        <v>0.8517053097756333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1810936251337191</v>
+        <v>0.1923093752082536</v>
       </c>
       <c r="H8" t="n">
-        <v>1.608435193491124</v>
+        <v>1.298670537229685</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06677373774967074</v>
+        <v>0.758431208569504</v>
       </c>
       <c r="J8" t="n">
-        <v>0.984024622284253</v>
+        <v>0.3295502003442338</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5253992569197772</v>
+        <v>0.5439902212224337</v>
       </c>
       <c r="L8" t="n">
-        <v>2.424986094148682</v>
+        <v>0.2799489675510841</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4255509665524437</v>
+        <v>0.4385309284511795</v>
       </c>
       <c r="N8" t="n">
-        <v>1.030950201958635</v>
+        <v>1.032867054247985</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4436675522105231</v>
+        <v>0.4572000979595134</v>
       </c>
       <c r="P8" t="n">
-        <v>93.41748223104014</v>
+        <v>93.29729974908551</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2668943501092</v>
+        <v>148.1467118681545</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_3</t>
+          <t>model_28_6_5</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9701699644231173</v>
+        <v>0.9728347280027136</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7592294456061529</v>
+        <v>0.8054279630196536</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9790857660486149</v>
+        <v>0.8961232896034477</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9209938230794478</v>
+        <v>0.9456652097648554</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9377985964213585</v>
+        <v>0.91204099251822</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1994735852572982</v>
+        <v>0.1816542989304301</v>
       </c>
       <c r="H9" t="n">
-        <v>1.610033805878118</v>
+        <v>1.301104107209427</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07201730004401044</v>
+        <v>0.5172677646449912</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8189945229540978</v>
+        <v>0.12805356716556</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4455057767853298</v>
+        <v>0.322660507035855</v>
       </c>
       <c r="L9" t="n">
-        <v>2.52148773969536</v>
+        <v>0.2697269307338515</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4466246581384622</v>
+        <v>0.4262092196684981</v>
       </c>
       <c r="N9" t="n">
-        <v>1.034091469230723</v>
+        <v>1.031046025139756</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4656383944759139</v>
+        <v>0.4443538285244997</v>
       </c>
       <c r="P9" t="n">
-        <v>93.22414691228764</v>
+        <v>93.41129970917308</v>
       </c>
       <c r="Q9" t="n">
-        <v>148.0735590313567</v>
+        <v>148.2607118282421</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_11</t>
+          <t>model_28_6_13</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9728704542448879</v>
+        <v>0.9704840678424098</v>
       </c>
       <c r="C10" t="n">
-        <v>0.759138831606379</v>
+        <v>0.8049393363427013</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9805936418325449</v>
+        <v>0.8423132331611354</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9033969561404206</v>
+        <v>0.8489754019714766</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9254268135138966</v>
+        <v>0.8444582661106586</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1814153973845064</v>
+        <v>0.1973731742461761</v>
       </c>
       <c r="H10" t="n">
-        <v>1.610639742111846</v>
+        <v>1.304371556048126</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06682499211569627</v>
+        <v>0.7852220298992314</v>
       </c>
       <c r="J10" t="n">
-        <v>1.00140731909164</v>
+        <v>0.3559273611548479</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5341163295591087</v>
+        <v>0.5705745910373855</v>
       </c>
       <c r="L10" t="n">
-        <v>2.41518319878098</v>
+        <v>0.2804475360524238</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4259288642302919</v>
+        <v>0.4442670078299491</v>
       </c>
       <c r="N10" t="n">
-        <v>1.0310051951487</v>
+        <v>1.033732493894389</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4440615377748733</v>
+        <v>0.4631803741127584</v>
       </c>
       <c r="P10" t="n">
-        <v>93.41393172812511</v>
+        <v>93.24531811325363</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.2633438471941</v>
+        <v>148.0947302323227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_12</t>
+          <t>model_28_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9727862927177913</v>
+        <v>0.969710096595723</v>
       </c>
       <c r="C11" t="n">
-        <v>0.758795825835288</v>
+        <v>0.8040327677186192</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9805534194871118</v>
+        <v>0.8373439933091043</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9018666010280334</v>
+        <v>0.8383365237951079</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9243097141237486</v>
+        <v>0.8376679501939257</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1819781859037297</v>
+        <v>0.2025487235365807</v>
       </c>
       <c r="H11" t="n">
-        <v>1.612933423282527</v>
+        <v>1.310433784611727</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06696349609945504</v>
+        <v>0.8099670144143574</v>
       </c>
       <c r="J11" t="n">
-        <v>1.017271299657112</v>
+        <v>0.3810005471417271</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5421173424450163</v>
+        <v>0.5954835439616269</v>
       </c>
       <c r="L11" t="n">
-        <v>2.406214431905163</v>
+        <v>0.2807382065527076</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4265890128727294</v>
+        <v>0.4500541340067666</v>
       </c>
       <c r="N11" t="n">
-        <v>1.031101379751096</v>
+        <v>1.034617032462031</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4447497903117155</v>
+        <v>0.4692138702319257</v>
       </c>
       <c r="P11" t="n">
-        <v>93.40773691352132</v>
+        <v>93.19354962264063</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2571490325903</v>
+        <v>148.0429617417097</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_13</t>
+          <t>model_28_6_4</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9726779243025018</v>
+        <v>0.9716729892876113</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7584503350547748</v>
+        <v>0.8034599938275611</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9804946605159095</v>
+        <v>0.9037757682877978</v>
       </c>
       <c r="E12" t="n">
-        <v>0.900474094109659</v>
+        <v>0.9569385013975489</v>
       </c>
       <c r="F12" t="n">
-        <v>0.923287859848848</v>
+        <v>0.9208563622732902</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1827028459957615</v>
+        <v>0.1894228510676345</v>
       </c>
       <c r="H12" t="n">
-        <v>1.615243721722658</v>
+        <v>1.314263926258615</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06716583018777014</v>
+        <v>0.4791612388613385</v>
       </c>
       <c r="J12" t="n">
-        <v>1.031706317066842</v>
+        <v>0.1014852266784308</v>
       </c>
       <c r="K12" t="n">
-        <v>0.549436180225348</v>
+        <v>0.2903230380680675</v>
       </c>
       <c r="L12" t="n">
-        <v>2.398017459806451</v>
+        <v>0.2675048616445161</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4274375346126747</v>
+        <v>0.4352273556058196</v>
       </c>
       <c r="N12" t="n">
-        <v>1.031225229368569</v>
+        <v>1.032373726528444</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4456344353788124</v>
+        <v>0.4537558851787879</v>
       </c>
       <c r="P12" t="n">
-        <v>93.39978847658666</v>
+        <v>93.32754691146287</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.2492005956557</v>
+        <v>148.1769590305319</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_2</t>
+          <t>model_28_6_15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9687622252118564</v>
+        <v>0.968937824219809</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7581850055428878</v>
+        <v>0.8031035245098908</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9784172430198661</v>
+        <v>0.8327690134732265</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9236240626530121</v>
+        <v>0.8282918494010398</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9395412623473333</v>
+        <v>0.8313360162251645</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2088871438450434</v>
+        <v>0.2077129124703048</v>
       </c>
       <c r="H13" t="n">
-        <v>1.617017981390376</v>
+        <v>1.316647638227266</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07431933145762275</v>
+        <v>0.8327487292373075</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7917289104568304</v>
+        <v>0.4046733428148205</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4330242620226097</v>
+        <v>0.6187110118852646</v>
       </c>
       <c r="L13" t="n">
-        <v>2.539734194319313</v>
+        <v>0.2808605331048252</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4570417309667066</v>
+        <v>0.4557553208359775</v>
       </c>
       <c r="N13" t="n">
-        <v>1.035700314043593</v>
+        <v>1.035499629463075</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4764989436607701</v>
+        <v>0.4751577683875399</v>
       </c>
       <c r="P13" t="n">
-        <v>93.13192230892511</v>
+        <v>93.1431967623634</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.9813344279941</v>
+        <v>147.9926088814324</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_14</t>
+          <t>model_28_6_16</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9725541278419081</v>
+        <v>0.9681808001382838</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7581100310466107</v>
+        <v>0.8021753647101113</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9804226245776404</v>
+        <v>0.8285685118456025</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8992094467036418</v>
+        <v>0.8188612718586565</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9223553456841155</v>
+        <v>0.8254556544946485</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1835306734977816</v>
+        <v>0.2127751359892395</v>
       </c>
       <c r="H14" t="n">
-        <v>1.617519336192207</v>
+        <v>1.322854247082174</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06741388296332634</v>
+        <v>0.8536656804866689</v>
       </c>
       <c r="J14" t="n">
-        <v>1.044815916080065</v>
+        <v>0.4268988651644494</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5561151363810114</v>
+        <v>0.6402819749036404</v>
       </c>
       <c r="L14" t="n">
-        <v>2.390536314247188</v>
+        <v>0.2808489227018296</v>
       </c>
       <c r="M14" t="n">
-        <v>0.428404800974244</v>
+        <v>0.461275553210052</v>
       </c>
       <c r="N14" t="n">
-        <v>1.031366711037819</v>
+        <v>1.036364799841961</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4466428802719111</v>
+        <v>0.480913008482235</v>
       </c>
       <c r="P14" t="n">
-        <v>93.3907469348616</v>
+        <v>93.09503874099411</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2401590539306</v>
+        <v>147.9444508600631</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_15</t>
+          <t>model_28_6_17</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9724216990808344</v>
+        <v>0.9674487619266156</v>
       </c>
       <c r="C15" t="n">
-        <v>0.757780318701333</v>
+        <v>0.8012656607729475</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9803418562623403</v>
+        <v>0.8247195430383477</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8980632048355568</v>
+        <v>0.8100525337935094</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9215063919490286</v>
+        <v>0.8200136054925952</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1844162252328596</v>
+        <v>0.2176702788813913</v>
       </c>
       <c r="H15" t="n">
-        <v>1.619724124163265</v>
+        <v>1.32893744149879</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06769200531820403</v>
+        <v>0.8728321277443505</v>
       </c>
       <c r="J15" t="n">
-        <v>1.056698098569242</v>
+        <v>0.4476588667506808</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5621956067795053</v>
+        <v>0.6602450729488318</v>
       </c>
       <c r="L15" t="n">
-        <v>2.383722160303639</v>
+        <v>0.280731576761468</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4294371027669356</v>
+        <v>0.4665514750607818</v>
       </c>
       <c r="N15" t="n">
-        <v>1.031518058193332</v>
+        <v>1.037201414941011</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4477191292890769</v>
+        <v>0.4864135372488141</v>
       </c>
       <c r="P15" t="n">
-        <v>93.38111996479654</v>
+        <v>93.04954768668865</v>
       </c>
       <c r="Q15" t="n">
-        <v>148.2305320838656</v>
+        <v>147.8989598057577</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_16</t>
+          <t>model_28_6_3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9722855989724019</v>
+        <v>0.9697884579148024</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7574647913453917</v>
+        <v>0.8006945832120127</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9802558203405393</v>
+        <v>0.9110890397462246</v>
       </c>
       <c r="E16" t="n">
-        <v>0.897025387864142</v>
+        <v>0.9673022619612885</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9207347696433684</v>
+        <v>0.9291492666514732</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1853263272846318</v>
+        <v>0.2020247210350762</v>
       </c>
       <c r="H16" t="n">
-        <v>1.621834057045314</v>
+        <v>1.332756239778331</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06798826645831113</v>
+        <v>0.4427438401479888</v>
       </c>
       <c r="J16" t="n">
-        <v>1.067456325945214</v>
+        <v>0.07706042437969635</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5677222054555848</v>
+        <v>0.2599021316928028</v>
       </c>
       <c r="L16" t="n">
-        <v>2.377520844608781</v>
+        <v>0.2650318944854774</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4304954439766254</v>
+        <v>0.4494716020340732</v>
       </c>
       <c r="N16" t="n">
-        <v>1.031673601174398</v>
+        <v>1.034527476668797</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4488225262751314</v>
+        <v>0.4686065386671473</v>
       </c>
       <c r="P16" t="n">
-        <v>93.37127415307049</v>
+        <v>93.19873041541432</v>
       </c>
       <c r="Q16" t="n">
-        <v>148.2206862721395</v>
+        <v>148.0481425344833</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_17</t>
+          <t>model_28_6_18</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9721495154295017</v>
+        <v>0.9667484323163185</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7571658003384764</v>
+        <v>0.8003867058834899</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9801672492249943</v>
+        <v>0.8211998750336478</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8960870795680003</v>
+        <v>0.8018592174534764</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9200344640266357</v>
+        <v>0.8149925590966627</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1862363185626124</v>
+        <v>0.2223533862101695</v>
       </c>
       <c r="H17" t="n">
-        <v>1.623833411285284</v>
+        <v>1.334815016891808</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0682932574332738</v>
+        <v>0.8903587782720132</v>
       </c>
       <c r="J17" t="n">
-        <v>1.077183025620294</v>
+        <v>0.4669684726167666</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5727380118493296</v>
+        <v>0.6786638048370662</v>
       </c>
       <c r="L17" t="n">
-        <v>2.371875279389645</v>
+        <v>0.2805856796413329</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4315510613619348</v>
+        <v>0.4715436206865379</v>
       </c>
       <c r="N17" t="n">
-        <v>1.031829125223427</v>
+        <v>1.038001791638493</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4499230834779627</v>
+        <v>0.4916182088490249</v>
       </c>
       <c r="P17" t="n">
-        <v>93.36147776360508</v>
+        <v>93.00697466590483</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.2108898826741</v>
+        <v>147.8563867849739</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_18</t>
+          <t>model_28_6_19</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9720160800199474</v>
+        <v>0.9660843134641754</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7568846780318731</v>
+        <v>0.7995470169390281</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9800781196511263</v>
+        <v>0.8179865857265844</v>
       </c>
       <c r="E18" t="n">
-        <v>0.895239484001621</v>
+        <v>0.7942675674006903</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9193995498915939</v>
+        <v>0.8103728710482961</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1871286017607148</v>
+        <v>0.2267943520324359</v>
       </c>
       <c r="H18" t="n">
-        <v>1.625713277443989</v>
+        <v>1.340430020729836</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06860017143638619</v>
+        <v>0.9063597757109686</v>
       </c>
       <c r="J18" t="n">
-        <v>1.08596937820185</v>
+        <v>0.4848601009036295</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5772854641357743</v>
+        <v>0.6956102317091774</v>
       </c>
       <c r="L18" t="n">
-        <v>2.366743410580643</v>
+        <v>0.2803813811528944</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4325836355674066</v>
+        <v>0.4762293061461421</v>
       </c>
       <c r="N18" t="n">
-        <v>1.031981622834346</v>
+        <v>1.038760784612371</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4509996165050847</v>
+        <v>0.4965033736393504</v>
       </c>
       <c r="P18" t="n">
-        <v>93.35191837708267</v>
+        <v>92.96742322058769</v>
       </c>
       <c r="Q18" t="n">
-        <v>148.2013304961517</v>
+        <v>147.8168353396567</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_19</t>
+          <t>model_28_6_20</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9718871384841183</v>
+        <v>0.9654590283899632</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7566219323815571</v>
+        <v>0.7987519458658843</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9799903452793122</v>
+        <v>0.8150572626990408</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8944737986911022</v>
+        <v>0.7872571957061983</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9188244483021675</v>
+        <v>0.8061327602150353</v>
       </c>
       <c r="G19" t="n">
-        <v>0.187990834404525</v>
+        <v>0.2309756362028656</v>
       </c>
       <c r="H19" t="n">
-        <v>1.627470258817485</v>
+        <v>1.345746664656915</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06890241885724818</v>
+        <v>0.9209467256499502</v>
       </c>
       <c r="J19" t="n">
-        <v>1.093906631971919</v>
+        <v>0.5013818008816947</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5814045203883234</v>
+        <v>0.7111642534122025</v>
       </c>
       <c r="L19" t="n">
-        <v>2.362087803382886</v>
+        <v>0.2801258516976205</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4335790982099172</v>
+        <v>0.4805992469853293</v>
       </c>
       <c r="N19" t="n">
-        <v>1.032128984589579</v>
+        <v>1.039475396125756</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4520374580531788</v>
+        <v>0.5010593519070865</v>
       </c>
       <c r="P19" t="n">
-        <v>93.34272414101616</v>
+        <v>92.93088609001212</v>
       </c>
       <c r="Q19" t="n">
-        <v>148.1921362600852</v>
+        <v>147.7802982090812</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_1</t>
+          <t>model_28_6_21</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9668385346426107</v>
+        <v>0.9648736812469919</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7565797234085571</v>
+        <v>0.7980045642401354</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9775394460601566</v>
+        <v>0.812390170064576</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9261511324559306</v>
+        <v>0.7808007684115394</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9411590491040271</v>
+        <v>0.8022484693400902</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2217508715393698</v>
+        <v>0.2348898552431911</v>
       </c>
       <c r="H20" t="n">
-        <v>1.62775251041429</v>
+        <v>1.350744409029673</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07734198900138278</v>
+        <v>0.9342278647990819</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7655327773393634</v>
+        <v>0.5165979918828588</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4214371706669834</v>
+        <v>0.7254130188208406</v>
       </c>
       <c r="L20" t="n">
-        <v>2.559121830175985</v>
+        <v>0.2798376634921141</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4709043125087832</v>
+        <v>0.4846543667844035</v>
       </c>
       <c r="N20" t="n">
-        <v>1.037898817551302</v>
+        <v>1.040144364289152</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4909516839985927</v>
+        <v>0.5052871065512625</v>
       </c>
       <c r="P20" t="n">
-        <v>93.01240145504232</v>
+        <v>92.89727715161095</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.8618135741114</v>
+        <v>147.74668927068</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_20</t>
+          <t>model_28_6_22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.971764010776923</v>
+        <v>0.964328626663514</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7563776958327015</v>
+        <v>0.7973062735285114</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9799047946463233</v>
+        <v>0.8099653847507438</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8937833488443998</v>
+        <v>0.7748711667349124</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9183041710077158</v>
+        <v>0.7986979177752477</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1888141899494917</v>
+        <v>0.2385346377526528</v>
       </c>
       <c r="H21" t="n">
-        <v>1.629103469744288</v>
+        <v>1.355413882233636</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06919700892539224</v>
+        <v>0.9463024027223742</v>
       </c>
       <c r="J21" t="n">
-        <v>1.101063979218228</v>
+        <v>0.5305725861212267</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5851309080077829</v>
+        <v>0.7384375264974005</v>
       </c>
       <c r="L21" t="n">
-        <v>2.357859321942017</v>
+        <v>0.2795340701174062</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4345275479753749</v>
+        <v>0.4884000795993514</v>
       </c>
       <c r="N21" t="n">
-        <v>1.032269701969231</v>
+        <v>1.040767283813127</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4530262852887137</v>
+        <v>0.5091922821154372</v>
       </c>
       <c r="P21" t="n">
-        <v>93.33398373892845</v>
+        <v>92.86648149506306</v>
       </c>
       <c r="Q21" t="n">
-        <v>148.1833958579975</v>
+        <v>147.7158936141321</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_21</t>
+          <t>model_28_6_2</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9716474391211501</v>
+        <v>0.9669701960739484</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7561516222071337</v>
+        <v>0.7970040093687319</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9798230101279967</v>
+        <v>0.9177121295847457</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8931601603321686</v>
+        <v>0.9764879397416449</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9178336116878725</v>
+        <v>0.9365953872295623</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1895937051484075</v>
+        <v>0.2208704509417696</v>
       </c>
       <c r="H22" t="n">
-        <v>1.630615225119433</v>
+        <v>1.35743512406188</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06947863053338293</v>
+        <v>0.4097632917388575</v>
       </c>
       <c r="J22" t="n">
-        <v>1.107524081430217</v>
+        <v>0.05541206977084329</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5885012000470186</v>
+        <v>0.2325874869513418</v>
       </c>
       <c r="L22" t="n">
-        <v>2.354021072449243</v>
+        <v>0.262113740775806</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4354235927788106</v>
+        <v>0.469968563780355</v>
       </c>
       <c r="N22" t="n">
-        <v>1.032402926718686</v>
+        <v>1.037748347344059</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4539604765745001</v>
+        <v>0.4899760985095284</v>
       </c>
       <c r="P22" t="n">
-        <v>93.32574378081284</v>
+        <v>93.02035788835474</v>
       </c>
       <c r="Q22" t="n">
-        <v>148.1751558998819</v>
+        <v>147.8697700074238</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_22</t>
+          <t>model_28_6_23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9715379160269226</v>
+        <v>0.9638230706062287</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7559430749571762</v>
+        <v>0.7966569669511975</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9797447881917993</v>
+        <v>0.8077625294168806</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8925986960334105</v>
+        <v>0.7694358989918674</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9174084612806246</v>
+        <v>0.7954567722488516</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1903260865838145</v>
+        <v>0.2419152934355915</v>
       </c>
       <c r="H23" t="n">
-        <v>1.632009781540171</v>
+        <v>1.359755798305916</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06974798453708408</v>
+        <v>0.9572718110722703</v>
       </c>
       <c r="J23" t="n">
-        <v>1.113344337560059</v>
+        <v>0.5433821584041916</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5915462593468801</v>
+        <v>0.7503270383150571</v>
       </c>
       <c r="L23" t="n">
-        <v>2.350549491092308</v>
+        <v>0.2792187336569398</v>
       </c>
       <c r="M23" t="n">
-        <v>0.43626378096722</v>
+        <v>0.4918488522255505</v>
       </c>
       <c r="N23" t="n">
-        <v>1.032528095969231</v>
+        <v>1.04134506216431</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4548364333135194</v>
+        <v>0.5127878761322772</v>
       </c>
       <c r="P23" t="n">
-        <v>93.31803286541907</v>
+        <v>92.8383352824498</v>
       </c>
       <c r="Q23" t="n">
-        <v>148.1674449844881</v>
+        <v>147.6877474015188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_23</t>
+          <t>model_28_6_24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9714355376113329</v>
+        <v>0.9633559726830222</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7557513256074757</v>
+        <v>0.7960557829336353</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9796707697780666</v>
+        <v>0.805763493398056</v>
       </c>
       <c r="E24" t="n">
-        <v>0.892092387326953</v>
+        <v>0.7644652931667535</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9170242251290279</v>
+        <v>0.7925032289027679</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1910106915202723</v>
+        <v>0.2450387793988614</v>
       </c>
       <c r="H24" t="n">
-        <v>1.633292010324543</v>
+        <v>1.363775918599552</v>
       </c>
       <c r="I24" t="n">
-        <v>0.07000286388494652</v>
+        <v>0.9672262742907797</v>
       </c>
       <c r="J24" t="n">
-        <v>1.118592839306063</v>
+        <v>0.5550966382820958</v>
       </c>
       <c r="K24" t="n">
-        <v>0.594298278036774</v>
+        <v>0.7611615374855613</v>
       </c>
       <c r="L24" t="n">
-        <v>2.347406259484608</v>
+        <v>0.2789106193422381</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4370476993650377</v>
+        <v>0.4950139183890302</v>
       </c>
       <c r="N24" t="n">
-        <v>1.032645099872762</v>
+        <v>1.04187888836226</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4556537247404669</v>
+        <v>0.5160876857149262</v>
       </c>
       <c r="P24" t="n">
-        <v>93.31085175191241</v>
+        <v>92.81267759540445</v>
       </c>
       <c r="Q24" t="n">
-        <v>148.1602638709815</v>
+        <v>147.6620897144735</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_28_6_24</t>
+          <t>model_28_6_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9713404322976432</v>
+        <v>0.9629538273536067</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7555754594088712</v>
+        <v>0.7922424043334459</v>
       </c>
       <c r="D25" t="n">
-        <v>0.979601329624431</v>
+        <v>0.9231808753538656</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8916362017647783</v>
+        <v>0.984248772908533</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9166775077458482</v>
+        <v>0.9428002461469034</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1916466611908348</v>
+        <v>0.2477279270683723</v>
       </c>
       <c r="H25" t="n">
-        <v>1.634468028404401</v>
+        <v>1.389275998858012</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07024197818342361</v>
+        <v>0.3825309517022377</v>
       </c>
       <c r="J25" t="n">
-        <v>1.123321754074937</v>
+        <v>0.03712171902326655</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5967815756511627</v>
+        <v>0.20982616913213</v>
       </c>
       <c r="L25" t="n">
-        <v>2.344555351657057</v>
+        <v>0.2584104589486832</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4377746694257615</v>
+        <v>0.4977227411605504</v>
       </c>
       <c r="N25" t="n">
-        <v>1.032753791659836</v>
+        <v>1.04233848302445</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4564116434217113</v>
+        <v>0.5189118286798663</v>
       </c>
       <c r="P25" t="n">
-        <v>93.30420381739228</v>
+        <v>92.79084840661947</v>
       </c>
       <c r="Q25" t="n">
-        <v>148.1536159364613</v>
+        <v>147.6402605256885</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9642460767067849</v>
+        <v>0.9574093337171781</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7542306855766648</v>
+        <v>0.7862328967704681</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9763890249347651</v>
+        <v>0.926889991234795</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9284307361119515</v>
+        <v>0.9904093940106888</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9425320955113738</v>
+        <v>0.9472967913929916</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2390866496934083</v>
+        <v>0.2848039815452162</v>
       </c>
       <c r="H26" t="n">
-        <v>1.643460537212478</v>
+        <v>1.429461603602883</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08130341658973626</v>
+        <v>0.3640609205161013</v>
       </c>
       <c r="J26" t="n">
-        <v>0.741901929960624</v>
+        <v>0.02260266954000887</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4116029857278298</v>
+        <v>0.1933314676734644</v>
       </c>
       <c r="L26" t="n">
-        <v>2.579632015872201</v>
+        <v>0.2534135213730738</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4889648757256581</v>
+        <v>0.5336702929199041</v>
       </c>
       <c r="N26" t="n">
-        <v>1.040861626620817</v>
+        <v>1.048675047180368</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5097811227821299</v>
+        <v>0.5563897421393064</v>
       </c>
       <c r="P26" t="n">
-        <v>92.86185848347584</v>
+        <v>92.51190823879463</v>
       </c>
       <c r="Q26" t="n">
-        <v>147.7112706025449</v>
+        <v>147.3613203578637</v>
       </c>
     </row>
   </sheetData>
